--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161392.9253638794</v>
+        <v>158829.905027974</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>106.5908076132626</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35.8997222968955</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>124.1616011591531</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>35.33415019398285</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>306.7649267823599</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>233.4716947511267</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>161.8015669322326</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.19211142885832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>124.980887923759</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>72.01333343395868</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.8440990725228</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>55.55635901818237</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>36.2249434387023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833669</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
-        <v>148.0280580960838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>15.9345014072213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.2821160880066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1283.162304328173</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C2" t="n">
-        <v>914.1997873877617</v>
+        <v>158.9142690056421</v>
       </c>
       <c r="D2" t="n">
-        <v>914.1997873877617</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>914.1997873877617</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>503.2138825981542</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>87.50913232244301</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>87.50913232244301</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.762144392295</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.762144392295</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4389,37 +4389,37 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>846.3061319081668</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.6490100063438</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>344.6490100063438</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>344.6490100063438</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>344.6490100063438</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>344.6490100063438</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>176.6625453146224</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478913</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W4" t="n">
-        <v>793.4311400478913</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X4" t="n">
-        <v>565.4415891498739</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>344.6490100063438</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.523854133141</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C5" t="n">
-        <v>1582.523854133141</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D5" t="n">
-        <v>1224.258155526391</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>838.4699029281464</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>427.4839981385389</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4571,10 +4571,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.989612394221</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X5" t="n">
-        <v>1582.523854133141</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1582.523854133141</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4644,28 +4644,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2555.949435236615</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.9856847044969</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="C7" t="n">
-        <v>199.9856847044969</v>
+        <v>214.6827127621774</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>214.6827127621774</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>214.6827127621774</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>214.6827127621774</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827661</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W7" t="n">
-        <v>477.6642370458055</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X7" t="n">
-        <v>249.6746861477881</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.9856847044969</v>
+        <v>383.6188956900843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1262.465201337208</v>
+        <v>1694.732133680699</v>
       </c>
       <c r="C8" t="n">
-        <v>1136.221880202098</v>
+        <v>1694.732133680699</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953474</v>
+        <v>1336.466435073949</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>950.6781824757043</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>539.6922776860968</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>123.9875274103856</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.53079966241</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.53079966241</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>1649.06504140133</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="Y8" t="n">
-        <v>1649.06504140133</v>
+        <v>1694.732133680699</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
         <v>2214.708848710445</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.1664670606423</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234359</v>
+        <v>1058.137950582876</v>
       </c>
       <c r="V10" t="n">
-        <v>1185.132884028472</v>
+        <v>803.4534623769887</v>
       </c>
       <c r="W10" t="n">
-        <v>895.7157139915109</v>
+        <v>514.036292340028</v>
       </c>
       <c r="X10" t="n">
-        <v>667.7261630934936</v>
+        <v>514.036292340028</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7261630934936</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5021,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5121,16 +5121,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>184.7035232280589</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280589</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121629</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>883.8931825606599</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D19" t="n">
-        <v>733.7765431483241</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>585.863449565931</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>438.9735020680206</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>271.7774027829005</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.3345878491255</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6601,13 +6601,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6698,7 +6698,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>565.7099969556945</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,22 +7075,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7503,13 +7503,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8061,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601777</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>114.3555089013344</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>27.39221874047954</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>294.8344935184728</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9190230111279</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29.810190375575</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>129.314176769505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459456</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5874149221285734</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>130.4994612393479</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.876140686</v>
+        <v>317255.8761406861</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="E2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682529</v>
       </c>
       <c r="I2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="J2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="K2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="M2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="K2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682526</v>
-      </c>
       <c r="N2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90558.9798340792</v>
+        <v>90558.97983407916</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26430,16 +26430,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26448,13 +26448,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719719</v>
+        <v>7507.368461719688</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719688</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-980992.6597091573</v>
+        <v>-981179.0530976966</v>
       </c>
       <c r="C6" t="n">
-        <v>122891.1162057312</v>
+        <v>122891.1162057313</v>
       </c>
       <c r="D6" t="n">
-        <v>122891.1162057313</v>
+        <v>122891.1162057311</v>
       </c>
       <c r="E6" t="n">
-        <v>-273078.0350419197</v>
+        <v>-273112.7729673555</v>
       </c>
       <c r="F6" t="n">
-        <v>234407.406582626</v>
+        <v>234372.6686571902</v>
       </c>
       <c r="G6" t="n">
-        <v>234407.4065826258</v>
+        <v>234372.6686571902</v>
       </c>
       <c r="H6" t="n">
-        <v>234407.4065826262</v>
+        <v>234372.6686571905</v>
       </c>
       <c r="I6" t="n">
-        <v>234407.4065826259</v>
+        <v>234372.6686571904</v>
       </c>
       <c r="J6" t="n">
-        <v>66802.22877264371</v>
+        <v>66767.49084720755</v>
       </c>
       <c r="K6" t="n">
-        <v>234407.4065826262</v>
+        <v>234372.6686571903</v>
       </c>
       <c r="L6" t="n">
-        <v>234407.406582626</v>
+        <v>234372.6686571905</v>
       </c>
       <c r="M6" t="n">
-        <v>101800.1128536992</v>
+        <v>101765.3749282636</v>
       </c>
       <c r="N6" t="n">
-        <v>234407.406582626</v>
+        <v>234372.6686571902</v>
       </c>
       <c r="O6" t="n">
-        <v>234407.4065826258</v>
+        <v>234372.66865719</v>
       </c>
       <c r="P6" t="n">
-        <v>234407.4065826258</v>
+        <v>234372.6686571904</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>248.0922340074204</v>
       </c>
       <c r="E2" t="n">
-        <v>216.0113470611339</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>17.11978587706417</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>23.08990799597576</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>216.8034931298452</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>104.7827759905941</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>94.28056371900817</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>4.505033112571624</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>169.3925419232365</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>240.2920038472485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>229.0052191284467</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.987881109414502</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>230.6707951030182</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>218.6425359394819</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32084,7 +32084,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>593.5422977113961</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530516</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>412.0358695391846</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
@@ -35036,7 +35036,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>6.45443753892966</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35258,22 +35258,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>535.6747904601046</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>544.5140226420051</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>462.2005856280628</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
